--- a/StructureDefinition-SzEncounter.xlsx
+++ b/StructureDefinition-SzEncounter.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/StructureDefinition/SzEncounter</t>
+    <t>http://172.209.216.154:3447/fhir/StructureDefinition/SzEncounter</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:11:31+00:00</t>
+    <t>2025-07-14T08:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Ministry of Health Eswatini (https://192.168.10.200:3447, eswatinihie@moh.gov.sz)</t>
+    <t>Ministry of Health Eswatini (https://172.209.216.154:3447, eswatinihie@moh.gov.sz)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -615,7 +615,7 @@
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/ValueSet/SzEncounterClassificationVS</t>
+    <t>http://172.209.216.154:3447/fhir/ValueSet/SzEncounterClassificationVS</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -752,7 +752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://192.168.10.200:3447/fhir/StructureDefinition/SzPatient)
+    <t xml:space="preserve">Reference(http://172.209.216.154:3447/fhir/StructureDefinition/SzPatient)
 </t>
   </si>
   <si>
@@ -891,7 +891,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://192.168.10.200:3447/fhir/StructureDefinition/SzPractitioner)
+    <t xml:space="preserve">Reference(http://172.209.216.154:3447/fhir/StructureDefinition/SzPractitioner)
 </t>
   </si>
   <si>
@@ -994,7 +994,7 @@
     <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/ValueSet/SzServicePointVS</t>
+    <t>http://172.209.216.154:3447/fhir/ValueSet/SzServicePointVS</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1344,7 +1344,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://192.168.10.200:3447/fhir/StructureDefinition/SzLocation)
+    <t xml:space="preserve">Reference(http://172.209.216.154:3447/fhir/StructureDefinition/SzLocation)
 </t>
   </si>
   <si>
@@ -1791,7 +1791,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="62.0859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.0859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1806,7 +1806,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.00390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-SzEncounter.xlsx
+++ b/StructureDefinition-SzEncounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-14T08:08:58+00:00</t>
+    <t>2025-07-16T14:06:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzEncounter.xlsx
+++ b/StructureDefinition-SzEncounter.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$78</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="485">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T14:06:30+00:00</t>
+    <t>2025-08-01T12:25:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -956,6 +956,75 @@
     <t>PV1-44, PV1-45</t>
   </si>
   <si>
+    <t>Encounter.period.id</t>
+  </si>
+  <si>
+    <t>Encounter.period.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Encounter.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Start date and time of the encounter</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>Encounter.period.end</t>
+  </si>
+  <si>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
+    <t>DR.2</t>
+  </si>
+  <si>
     <t>Encounter.length</t>
   </si>
   <si>
@@ -985,16 +1054,16 @@
 Admission diagnosis</t>
   </si>
   <si>
-    <t>Service Point</t>
-  </si>
-  <si>
-    <t>Service points the patient has visited: HTS | ART | ANC etc</t>
+    <t>Reasons for the encounter</t>
+  </si>
+  <si>
+    <t>Reason why the encounter has occured: HTS | ART | ANC etc</t>
   </si>
   <si>
     <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
   </si>
   <si>
-    <t>http://172.209.216.154:3447/fhir/ValueSet/SzServicePointVS</t>
+    <t>http://172.209.216.154:3447/fhir/ValueSet/SzEncounterReasonVS</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1772,7 +1841,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN74"/>
+  <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1809,7 +1878,7 @@
     <col min="26" max="26" width="57.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
@@ -6255,7 +6324,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>87</v>
@@ -6384,17 +6453,15 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>303</v>
+        <v>170</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6443,7 +6510,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>302</v>
+        <v>173</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6455,31 +6522,31 @@
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>307</v>
+        <v>168</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>308</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>310</v>
+        <v>132</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6495,19 +6562,19 @@
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>311</v>
+        <v>134</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>313</v>
+        <v>136</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6533,29 +6600,31 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>314</v>
+        <v>20</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>309</v>
+        <v>176</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6567,38 +6636,38 @@
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>316</v>
+        <v>168</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>318</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6610,16 +6679,16 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6669,39 +6738,39 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>20</v>
+        <v>313</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6712,7 +6781,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6724,20 +6793,24 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>164</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="R44" t="s" s="2">
         <v>20</v>
       </c>
@@ -6781,16 +6854,16 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>20</v>
+        <v>313</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>99</v>
@@ -6799,21 +6872,21 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>20</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6836,15 +6909,17 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>170</v>
+        <v>325</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>171</v>
+        <v>326</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -6893,7 +6968,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>173</v>
+        <v>324</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6905,31 +6980,31 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>168</v>
+        <v>329</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>20</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>132</v>
+        <v>332</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6945,19 +7020,19 @@
         <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>134</v>
+        <v>333</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>175</v>
+        <v>334</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>136</v>
+        <v>335</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6983,13 +7058,11 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>20</v>
+        <v>336</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7007,7 +7080,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>176</v>
+        <v>331</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7019,31 +7092,31 @@
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>168</v>
+        <v>338</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>20</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7056,26 +7129,24 @@
         <v>20</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>133</v>
+        <v>342</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>179</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>180</v>
+        <v>344</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7123,7 +7194,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>181</v>
+        <v>341</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7135,38 +7206,38 @@
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>130</v>
+        <v>338</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>20</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>331</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -7178,17 +7249,15 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>332</v>
+        <v>164</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7237,13 +7306,13 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
@@ -7252,24 +7321,24 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>337</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7292,13 +7361,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>339</v>
+        <v>171</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>340</v>
+        <v>172</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7325,13 +7394,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>341</v>
+        <v>20</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>342</v>
+        <v>20</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7349,7 +7418,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7361,7 +7430,7 @@
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
@@ -7378,21 +7447,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -7404,15 +7473,17 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>344</v>
+        <v>133</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>345</v>
+        <v>134</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7461,25 +7532,25 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>343</v>
+        <v>176</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>347</v>
+        <v>168</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
@@ -7490,14 +7561,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7510,24 +7581,26 @@
         <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>349</v>
+        <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>350</v>
+        <v>179</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>351</v>
+        <v>180</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -7575,7 +7648,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>348</v>
+        <v>181</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7587,13 +7660,13 @@
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>353</v>
+        <v>130</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
@@ -7604,18 +7677,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>20</v>
+        <v>353</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>87</v>
@@ -7627,10 +7700,10 @@
         <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>164</v>
+        <v>354</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>355</v>
@@ -7639,7 +7712,7 @@
         <v>356</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7689,10 +7762,10 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>87</v>
@@ -7704,24 +7777,24 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>20</v>
+        <v>357</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>358</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>20</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7744,13 +7817,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>171</v>
+        <v>361</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>172</v>
+        <v>362</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7777,13 +7850,13 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>20</v>
+        <v>364</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -7801,7 +7874,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>173</v>
+        <v>360</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7813,7 +7886,7 @@
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -7830,21 +7903,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -7856,17 +7929,15 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>366</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>134</v>
+        <v>367</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -7915,25 +7986,25 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>176</v>
+        <v>365</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>168</v>
+        <v>369</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
@@ -7944,14 +8015,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7964,26 +8035,24 @@
         <v>20</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>133</v>
+        <v>371</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>179</v>
+        <v>372</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>180</v>
+        <v>373</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8031,7 +8100,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>181</v>
+        <v>370</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8043,13 +8112,13 @@
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>130</v>
+        <v>375</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -8060,10 +8129,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8086,15 +8155,17 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8143,7 +8214,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8161,21 +8232,21 @@
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>149</v>
+        <v>380</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>365</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8198,13 +8269,13 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>368</v>
+        <v>171</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>369</v>
+        <v>172</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8255,7 +8326,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>366</v>
+        <v>173</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8267,13 +8338,13 @@
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>370</v>
+        <v>168</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
@@ -8284,21 +8355,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -8310,15 +8381,17 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>372</v>
+        <v>134</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -8343,13 +8416,13 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>375</v>
+        <v>20</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -8367,71 +8440,75 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>371</v>
+        <v>176</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>376</v>
+        <v>168</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>377</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>379</v>
+        <v>179</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
       </c>
@@ -8455,13 +8532,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>381</v>
+        <v>20</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -8479,31 +8556,31 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>378</v>
+        <v>181</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>383</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" hidden="true">
@@ -8522,7 +8599,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
@@ -8534,7 +8611,7 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>385</v>
@@ -8542,12 +8619,8 @@
       <c r="M60" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="N60" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>388</v>
-      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>20</v>
       </c>
@@ -8571,13 +8644,13 @@
         <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>389</v>
+        <v>20</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -8601,7 +8674,7 @@
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
@@ -8613,21 +8686,21 @@
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>391</v>
+        <v>149</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8638,7 +8711,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
@@ -8650,13 +8723,13 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>211</v>
+        <v>389</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8683,13 +8756,13 @@
         <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>396</v>
+        <v>20</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>397</v>
+        <v>20</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
@@ -8707,13 +8780,13 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>20</v>
@@ -8725,21 +8798,21 @@
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>399</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8750,7 +8823,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>20</v>
@@ -8765,10 +8838,10 @@
         <v>211</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8798,10 +8871,10 @@
         <v>111</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>20</v>
@@ -8819,13 +8892,13 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>20</v>
@@ -8837,21 +8910,21 @@
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8874,13 +8947,13 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>367</v>
+        <v>211</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8907,13 +8980,13 @@
         <v>20</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>20</v>
+        <v>403</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>20</v>
@@ -8931,7 +9004,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8949,21 +9022,21 @@
         <v>20</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>410</v>
+        <v>168</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8974,7 +9047,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>20</v>
@@ -8989,13 +9062,17 @@
         <v>211</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
       </c>
@@ -9022,10 +9099,10 @@
         <v>215</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>20</v>
@@ -9043,13 +9120,13 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>20</v>
@@ -9061,21 +9138,21 @@
         <v>20</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9083,13 +9160,13 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>20</v>
@@ -9098,17 +9175,15 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9133,13 +9208,13 @@
         <v>20</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>20</v>
+        <v>418</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>20</v>
+        <v>419</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>20</v>
@@ -9157,7 +9232,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9175,21 +9250,21 @@
         <v>20</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>20</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9200,7 +9275,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>20</v>
@@ -9212,13 +9287,13 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>171</v>
+        <v>423</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>172</v>
+        <v>424</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9245,13 +9320,13 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>20</v>
+        <v>425</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>20</v>
+        <v>426</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>20</v>
@@ -9269,50 +9344,50 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>173</v>
+        <v>422</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>168</v>
+        <v>427</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>20</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>20</v>
@@ -9324,17 +9399,15 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>134</v>
+        <v>430</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -9383,75 +9456,71 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>176</v>
+        <v>429</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>168</v>
+        <v>432</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>20</v>
+        <v>433</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>179</v>
+        <v>435</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>20</v>
       </c>
@@ -9475,13 +9544,13 @@
         <v>20</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>20</v>
+        <v>437</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>20</v>
+        <v>438</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>20</v>
@@ -9499,39 +9568,39 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>181</v>
+        <v>434</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>130</v>
+        <v>439</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>20</v>
+        <v>440</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9545,7 +9614,7 @@
         <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>20</v>
@@ -9554,15 +9623,17 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>428</v>
+        <v>164</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -9611,13 +9682,13 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>20</v>
@@ -9626,24 +9697,24 @@
         <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>431</v>
+        <v>20</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>285</v>
+        <v>445</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>432</v>
+        <v>20</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>433</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9666,17 +9737,15 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>435</v>
+        <v>171</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -9701,13 +9770,13 @@
         <v>20</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>438</v>
+        <v>20</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>439</v>
+        <v>20</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>20</v>
@@ -9725,7 +9794,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>434</v>
+        <v>173</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9737,13 +9806,13 @@
         <v>20</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>440</v>
+        <v>168</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>20</v>
@@ -9754,21 +9823,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>20</v>
@@ -9780,16 +9849,16 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>442</v>
+        <v>134</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>443</v>
+        <v>175</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>444</v>
+        <v>136</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9815,13 +9884,13 @@
         <v>20</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>445</v>
+        <v>20</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>446</v>
+        <v>20</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>20</v>
@@ -9839,25 +9908,25 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>441</v>
+        <v>176</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>20</v>
@@ -9868,42 +9937,46 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>448</v>
+        <v>179</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
       </c>
@@ -9951,25 +10024,25 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>447</v>
+        <v>181</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>20</v>
@@ -9980,10 +10053,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9991,7 +10064,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>87</v>
@@ -10006,13 +10079,13 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10063,10 +10136,10 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>87</v>
@@ -10078,13 +10151,13 @@
         <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>284</v>
+        <v>453</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>455</v>
@@ -10118,16 +10191,16 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10153,13 +10226,13 @@
         <v>20</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>20</v>
+        <v>460</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>20</v>
+        <v>461</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>20</v>
@@ -10192,7 +10265,7 @@
         <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>461</v>
+        <v>20</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>462</v>
@@ -10204,8 +10277,460 @@
         <v>20</v>
       </c>
     </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN74">
+  <autoFilter ref="A1:AN78">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10215,7 +10740,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI77">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-SzEncounter.xlsx
+++ b/StructureDefinition-SzEncounter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="485">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T12:25:19+00:00</t>
+    <t>2025-09-08T12:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1054,16 +1054,19 @@
 Admission diagnosis</t>
   </si>
   <si>
-    <t>Reasons for the encounter</t>
-  </si>
-  <si>
-    <t>Reason why the encounter has occured: HTS | ART | ANC etc</t>
+    <t>Coded reason the encounter takes place</t>
+  </si>
+  <si>
+    <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.</t>
   </si>
   <si>
     <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
   </si>
   <si>
-    <t>http://172.209.216.154:3447/fhir/ValueSet/SzEncounterReasonVS</t>
+    <t>Reason why the encounter takes place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1086,9 +1089,6 @@
   </si>
   <si>
     <t>Reason the encounter takes place (reference)</t>
-  </si>
-  <si>
-    <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.</t>
   </si>
   <si>
     <t>Encounter.diagnosis</t>
@@ -7058,11 +7058,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y46" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="Z46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7095,24 +7097,24 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7135,13 +7137,13 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>335</v>
@@ -7194,7 +7196,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7209,16 +7211,16 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" hidden="true">
@@ -7783,7 +7785,7 @@
         <v>358</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>359</v>

--- a/StructureDefinition-SzEncounter.xlsx
+++ b/StructureDefinition-SzEncounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T12:30:01+00:00</t>
+    <t>2025-09-09T15:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzEncounter.xlsx
+++ b/StructureDefinition-SzEncounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T15:13:38+00:00</t>
+    <t>2025-09-10T08:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzEncounter.xlsx
+++ b/StructureDefinition-SzEncounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T08:40:27+00:00</t>
+    <t>2025-09-10T10:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzEncounter.xlsx
+++ b/StructureDefinition-SzEncounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:05:20+00:00</t>
+    <t>2025-09-19T08:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
